--- a/geomorph user guide/Geomorph functions.xlsx
+++ b/geomorph user guide/Geomorph functions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/OneDrive/Work/Github/geomorph/Geomorph Help Guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Work/Github/geomorph/geomorph.build/geomorph/geomorph user guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="5520" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Geomorph functions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>Input</t>
   </si>
@@ -56,9 +56,6 @@
     <t>advanced.procD.lm</t>
   </si>
   <si>
-    <t>plotAllometry</t>
-  </si>
-  <si>
     <t>hummingbirds</t>
   </si>
   <si>
@@ -234,16 +231,40 @@
   </si>
   <si>
     <t>larvalTails</t>
+  </si>
+  <si>
+    <t>interlmkdist</t>
+  </si>
+  <si>
+    <t>larvalMorph</t>
+  </si>
+  <si>
+    <t>geomorph.data.frame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,10 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +307,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,7 +592,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K13"/>
+      <selection activeCell="G1" sqref="G1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -603,13 +631,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -619,35 +647,35 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -657,373 +685,373 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>61</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1031,26 +1059,28 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1058,26 +1088,26 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1085,26 +1115,26 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1112,26 +1142,26 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1139,17 +1169,17 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -1162,17 +1192,17 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -1185,14 +1215,14 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -1206,14 +1236,14 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
@@ -1222,71 +1252,71 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="G3:G13">
-    <sortCondition ref="G3:G13"/>
+  <sortState ref="E3:E19">
+    <sortCondition ref="E3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
